--- a/src/sidePJTest/java/data/LoginDate.xlsx
+++ b/src/sidePJTest/java/data/LoginDate.xlsx
@@ -12,7 +12,7 @@
     <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="LoginDate" sheetId="1" r:id="rId4"/>
+    <x:sheet name="LoginData" sheetId="1" r:id="rId4"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
@@ -21,37 +21,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
-    <x:t>testuser1</x:t>
+    <x:t>No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e-mail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nheoik93@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>failuser</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testuser2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testuser2@</x:t>
   </x:si>
   <x:si>
     <x:t>testuser1@</x:t>
   </x:si>
   <x:si>
-    <x:t>failuser</x:t>
-  </x:si>
-  <x:si>
-    <x:t>testuser2@</x:t>
-  </x:si>
-  <x:si>
-    <x:t>testuser2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인여부</x:t>
-  </x:si>
-  <x:si>
     <x:t>Password</x:t>
   </x:si>
   <x:si>
-    <x:t>UserName</x:t>
+    <x:t>testuser1</x:t>
   </x:si>
   <x:si>
-    <x:t>nheoik93@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e-mail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No</x:t>
+    <x:t>UserName</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -154,7 +154,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="6">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -857,281 +860,281 @@
   <x:dimension ref="A1:E27"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N19" activeCellId="0" sqref="N19:N19"/>
+      <x:selection activeCell="M14" activeCellId="0" sqref="M14:M14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.00390625" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="9.8671875" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="19.73828125" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="9.00390625" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="9.8671875" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="19.73828125" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="C1" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="D2" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E2" s="5"/>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="3">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D1" s="2" t="s">
+      <x:c r="D3" s="3"/>
+      <x:c r="E3" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="3">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="3"/>
+      <x:c r="C4" s="3"/>
+      <x:c r="D4" s="3"/>
+      <x:c r="E4" s="5"/>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="3"/>
+      <x:c r="C5" s="3"/>
+      <x:c r="D5" s="3"/>
+      <x:c r="E5" s="5"/>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="3"/>
+      <x:c r="C6" s="3"/>
+      <x:c r="D6" s="3"/>
+      <x:c r="E6" s="5"/>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="3"/>
+      <x:c r="C7" s="3"/>
+      <x:c r="D7" s="3"/>
+      <x:c r="E7" s="5"/>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="3">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="3"/>
+      <x:c r="C8" s="3"/>
+      <x:c r="D8" s="3"/>
+      <x:c r="E8" s="5"/>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="3">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="3"/>
+      <x:c r="C9" s="3"/>
+      <x:c r="D9" s="3"/>
+      <x:c r="E9" s="5"/>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="3">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D2" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E2" s="4"/>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="2">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D3" s="2"/>
-      <x:c r="E3" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="A4" s="2">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="2"/>
-      <x:c r="C4" s="2"/>
-      <x:c r="D4" s="2"/>
-      <x:c r="E4" s="4"/>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="A5" s="2">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="2"/>
-      <x:c r="C5" s="2"/>
-      <x:c r="D5" s="2"/>
-      <x:c r="E5" s="4"/>
-    </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="A6" s="2">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="2"/>
-      <x:c r="C6" s="2"/>
-      <x:c r="D6" s="2"/>
-      <x:c r="E6" s="4"/>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" s="2">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B7" s="2"/>
-      <x:c r="C7" s="2"/>
-      <x:c r="D7" s="2"/>
-      <x:c r="E7" s="4"/>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="2">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B8" s="2"/>
-      <x:c r="C8" s="2"/>
-      <x:c r="D8" s="2"/>
-      <x:c r="E8" s="4"/>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="A9" s="2">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B9" s="2"/>
-      <x:c r="C9" s="2"/>
-      <x:c r="D9" s="2"/>
-      <x:c r="E9" s="4"/>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="A10" s="2">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B10" s="2"/>
-      <x:c r="C10" s="2"/>
-      <x:c r="D10" s="2"/>
-      <x:c r="E10" s="4"/>
+      <x:c r="B10" s="3"/>
+      <x:c r="C10" s="3"/>
+      <x:c r="D10" s="3"/>
+      <x:c r="E10" s="5"/>
     </x:row>
     <x:row r="11" spans="1:5">
-      <x:c r="A11" s="2">
+      <x:c r="A11" s="3">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B11" s="2"/>
-      <x:c r="C11" s="2"/>
-      <x:c r="D11" s="2"/>
-      <x:c r="E11" s="4"/>
+      <x:c r="B11" s="3"/>
+      <x:c r="C11" s="3"/>
+      <x:c r="D11" s="3"/>
+      <x:c r="E11" s="5"/>
     </x:row>
     <x:row r="12" spans="1:5">
-      <x:c r="A12" s="2">
+      <x:c r="A12" s="3">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B12" s="2"/>
-      <x:c r="C12" s="2"/>
-      <x:c r="D12" s="2"/>
-      <x:c r="E12" s="4"/>
+      <x:c r="B12" s="3"/>
+      <x:c r="C12" s="3"/>
+      <x:c r="D12" s="3"/>
+      <x:c r="E12" s="5"/>
     </x:row>
     <x:row r="13" spans="1:5">
-      <x:c r="A13" s="2">
+      <x:c r="A13" s="3">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B13" s="2"/>
-      <x:c r="C13" s="2"/>
-      <x:c r="D13" s="2"/>
-      <x:c r="E13" s="4"/>
+      <x:c r="B13" s="3"/>
+      <x:c r="C13" s="3"/>
+      <x:c r="D13" s="3"/>
+      <x:c r="E13" s="5"/>
     </x:row>
     <x:row r="14" spans="1:5">
-      <x:c r="A14" s="2">
+      <x:c r="A14" s="3">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B14" s="2"/>
-      <x:c r="C14" s="2"/>
-      <x:c r="D14" s="2"/>
-      <x:c r="E14" s="4"/>
+      <x:c r="B14" s="3"/>
+      <x:c r="C14" s="3"/>
+      <x:c r="D14" s="3"/>
+      <x:c r="E14" s="5"/>
     </x:row>
     <x:row r="15" spans="1:5">
-      <x:c r="A15" s="2">
+      <x:c r="A15" s="3">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B15" s="2"/>
-      <x:c r="C15" s="2"/>
-      <x:c r="D15" s="2"/>
-      <x:c r="E15" s="4"/>
+      <x:c r="B15" s="3"/>
+      <x:c r="C15" s="3"/>
+      <x:c r="D15" s="3"/>
+      <x:c r="E15" s="5"/>
     </x:row>
     <x:row r="16" spans="1:5">
-      <x:c r="A16" s="2">
+      <x:c r="A16" s="3">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B16" s="2"/>
-      <x:c r="C16" s="2"/>
-      <x:c r="D16" s="2"/>
-      <x:c r="E16" s="4"/>
+      <x:c r="B16" s="3"/>
+      <x:c r="C16" s="3"/>
+      <x:c r="D16" s="3"/>
+      <x:c r="E16" s="5"/>
     </x:row>
     <x:row r="17" spans="1:5">
-      <x:c r="A17" s="2">
+      <x:c r="A17" s="3">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B17" s="2"/>
-      <x:c r="C17" s="2"/>
-      <x:c r="D17" s="2"/>
-      <x:c r="E17" s="4"/>
+      <x:c r="B17" s="3"/>
+      <x:c r="C17" s="3"/>
+      <x:c r="D17" s="3"/>
+      <x:c r="E17" s="5"/>
     </x:row>
     <x:row r="18" spans="1:5">
-      <x:c r="A18" s="2">
+      <x:c r="A18" s="3">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B18" s="2"/>
-      <x:c r="C18" s="2"/>
-      <x:c r="D18" s="2"/>
-      <x:c r="E18" s="4"/>
+      <x:c r="B18" s="3"/>
+      <x:c r="C18" s="3"/>
+      <x:c r="D18" s="3"/>
+      <x:c r="E18" s="5"/>
     </x:row>
     <x:row r="19" spans="1:5">
-      <x:c r="A19" s="2">
+      <x:c r="A19" s="3">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B19" s="2"/>
-      <x:c r="C19" s="2"/>
-      <x:c r="D19" s="2"/>
-      <x:c r="E19" s="4"/>
+      <x:c r="B19" s="3"/>
+      <x:c r="C19" s="3"/>
+      <x:c r="D19" s="3"/>
+      <x:c r="E19" s="5"/>
     </x:row>
     <x:row r="20" spans="1:5">
-      <x:c r="A20" s="2">
+      <x:c r="A20" s="3">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B20" s="2"/>
-      <x:c r="C20" s="2"/>
-      <x:c r="D20" s="2"/>
-      <x:c r="E20" s="4"/>
+      <x:c r="B20" s="3"/>
+      <x:c r="C20" s="3"/>
+      <x:c r="D20" s="3"/>
+      <x:c r="E20" s="5"/>
     </x:row>
     <x:row r="21" spans="1:5">
-      <x:c r="A21" s="2">
+      <x:c r="A21" s="3">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B21" s="2"/>
-      <x:c r="C21" s="2"/>
-      <x:c r="D21" s="2"/>
-      <x:c r="E21" s="4"/>
+      <x:c r="B21" s="3"/>
+      <x:c r="C21" s="3"/>
+      <x:c r="D21" s="3"/>
+      <x:c r="E21" s="5"/>
     </x:row>
     <x:row r="22" spans="1:5">
-      <x:c r="A22" s="2">
+      <x:c r="A22" s="3">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B22" s="2"/>
-      <x:c r="C22" s="2"/>
-      <x:c r="D22" s="2"/>
-      <x:c r="E22" s="4"/>
+      <x:c r="B22" s="3"/>
+      <x:c r="C22" s="3"/>
+      <x:c r="D22" s="3"/>
+      <x:c r="E22" s="5"/>
     </x:row>
     <x:row r="23" spans="1:5">
-      <x:c r="A23" s="2">
+      <x:c r="A23" s="3">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B23" s="2"/>
-      <x:c r="C23" s="2"/>
-      <x:c r="D23" s="2"/>
-      <x:c r="E23" s="4"/>
+      <x:c r="B23" s="3"/>
+      <x:c r="C23" s="3"/>
+      <x:c r="D23" s="3"/>
+      <x:c r="E23" s="5"/>
     </x:row>
     <x:row r="24" spans="1:5">
-      <x:c r="A24" s="2">
+      <x:c r="A24" s="3">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B24" s="2"/>
-      <x:c r="C24" s="2"/>
-      <x:c r="D24" s="2"/>
-      <x:c r="E24" s="4"/>
+      <x:c r="B24" s="3"/>
+      <x:c r="C24" s="3"/>
+      <x:c r="D24" s="3"/>
+      <x:c r="E24" s="5"/>
     </x:row>
     <x:row r="25" spans="1:5">
-      <x:c r="A25" s="2">
+      <x:c r="A25" s="3">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B25" s="2"/>
-      <x:c r="C25" s="2"/>
-      <x:c r="D25" s="2"/>
-      <x:c r="E25" s="4"/>
+      <x:c r="B25" s="3"/>
+      <x:c r="C25" s="3"/>
+      <x:c r="D25" s="3"/>
+      <x:c r="E25" s="5"/>
     </x:row>
     <x:row r="26" spans="1:5">
-      <x:c r="A26" s="2">
+      <x:c r="A26" s="3">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B26" s="2"/>
-      <x:c r="C26" s="2"/>
-      <x:c r="D26" s="2"/>
-      <x:c r="E26" s="4"/>
+      <x:c r="B26" s="3"/>
+      <x:c r="C26" s="3"/>
+      <x:c r="D26" s="3"/>
+      <x:c r="E26" s="5"/>
     </x:row>
     <x:row r="27" spans="1:2">
-      <x:c r="A27"/>
-      <x:c r="B27"/>
+      <x:c r="A27" s="1"/>
+      <x:c r="B27" s="1"/>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D2:D2" r:id="rId1"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>